--- a/pred_ohlcv/54_21/2020-01-26 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 XSR ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-467288.3296757623</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-186760.8913757624</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-747817.1498757624</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-297693.8315757624</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-296360.8670757624</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-286360.8670757624</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-6370.374675762374</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-826636.5661757623</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-160569.2801757624</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-626571.4412757624</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-679040.1175757624</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-680109.9654757625</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-973318.6639757624</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1332799.508475762</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>984593.7089814829</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>984593.7089814829</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>984593.7089814829</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>984593.7089814829</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1790263.625181483</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1791263.625181483</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1731845.528481483</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>2260533.529781483</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-329985.096570051</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-46876.65617005096</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-46771.14407005096</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-46771.14407005096</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>533992.0158299491</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>20121846.79498561</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>19585963.34461629</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>18576196.82825051</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>18733194.42914103</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>18025135.01074103</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>17617271.37464102</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>17618312.90344102</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>17806385.41740775</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>17471974.40360775</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>19689005.15250775</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>19261415.42560775</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>19290308.726928</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>18682987.327328</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>26576413.12498228</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>27222692.52599402</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>27067061.60339576</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>25886461.32559576</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>26093915.78799576</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>25575129.26749576</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>25757181.91103648</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>25101781.33873648</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>25300308.57813648</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>25137190.64193648</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>25950036.12103648</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>26279540.17163648</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>25504959.61703648</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>23779869.59863648</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>23590959.98613648</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>23600214.41543648</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>23600214.41543648</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>23282886.26303647</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>24105240.36983648</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>24733366.35255398</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>24164220.4492497</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>24141991.90172684</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>24875651.01182684</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>24875651.01182684</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>26728297.51380414</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>26464223.02290414</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>26464223.02290414</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>25875525.12670414</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>25461663.76794412</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>24920581.65254411</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>25662780.5704761</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>25662780.5704761</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>24983132.79496315</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>24991218.78725508</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>23759127.03855996</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>23778562.23745996</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>23184572.77305189</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>21931130.93805189</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>21235081.52625189</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>21891862.03605188</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>21892451.54445188</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>21992540.77055189</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>20778823.31525189</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>20944133.1631182</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>20786399.2868182</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>21907173.8787182</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>20774837.3175182</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>20296843.3777182</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>20296843.3777182</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>20658863.1454182</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>20376394.2550182</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>20393142.06454201</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>20354811.42634201</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>19828955.08794201</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>18980623.37324201</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>18980623.37324201</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-26 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 XSR ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-467288.3296757623</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-186760.8913757624</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-747817.1498757624</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-297693.8315757624</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-296360.8670757624</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-286360.8670757624</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>385889.1348242376</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-6370.374675762374</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-826636.5661757623</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-160569.2801757624</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-626571.4412757624</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-679040.1175757624</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-680109.9654757625</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-973318.6639757624</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>984593.7089814829</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>984593.7089814829</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>984593.7089814829</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1791263.625181483</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1731845.528481483</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>2260533.529781483</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>20121846.79498561</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>19585963.34461629</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>18576196.82825051</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>18733194.42914103</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>18025135.01074103</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>17617271.37464102</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>17618312.90344102</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>17806385.41740775</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>17471974.40360775</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>19689005.15250775</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>19261415.42560775</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>19290308.726928</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>18682987.327328</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>26576413.12498228</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>25774200.99643815</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>26860539.32013462</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>27501473.71319402</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>27222692.52599402</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>27067061.60339576</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>25886461.32559576</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>26093915.78799576</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>25575129.26749576</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>25757181.91103648</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>25101781.33873648</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>25300308.57813648</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>25137190.64193648</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>24248369.02773648</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>24787496.92483648</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>25950036.12103648</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>26279540.17163648</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>25504959.61703648</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>23779869.59863648</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>23590959.98613648</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>24733366.35255398</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>24163846.58145244</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>24164220.4492497</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>24099354.6999497</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>24875651.01182684</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>26464223.02290414</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>26464223.02290414</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>21907173.8787182</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>20774837.3175182</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>20658863.1454182</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>20376394.2550182</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>20393142.06454201</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>20354811.42634201</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
